--- a/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15729</v>
+        <v>15731</v>
       </c>
       <c r="D70" t="n">
         <v>2768</v>
       </c>
       <c r="E70" t="n">
-        <v>24670411</v>
+        <v>24673307</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>116591</v>
+        <v>116592</v>
       </c>
       <c r="D79" t="n">
         <v>22734</v>
       </c>
       <c r="E79" t="n">
-        <v>447355948</v>
+        <v>447357508</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151118</v>
+        <v>151119</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>482274316</v>
+        <v>482282585</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409060</v>
+        <v>409069</v>
       </c>
       <c r="D92" t="n">
-        <v>70905</v>
+        <v>70906</v>
       </c>
       <c r="E92" t="n">
-        <v>1594551428</v>
+        <v>1594718796</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209533</v>
+        <v>209545</v>
       </c>
       <c r="D93" t="n">
         <v>34261</v>
       </c>
       <c r="E93" t="n">
-        <v>1308206421</v>
+        <v>1308331272</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94174</v>
+        <v>94175</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>916746241</v>
+        <v>916858080</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50744</v>
+        <v>50752</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>931458751</v>
+        <v>931855831</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17255</v>
+        <v>17256</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>790591490</v>
+        <v>790601490</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="D97" t="n">
         <v>375</v>
       </c>
       <c r="E97" t="n">
-        <v>214009805</v>
+        <v>214088295</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135231</v>
+        <v>135232</v>
       </c>
       <c r="D104" t="n">
         <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272154522</v>
+        <v>272164522</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="D114" t="n">
         <v>699</v>
       </c>
       <c r="E114" t="n">
-        <v>9102747</v>
+        <v>9113119</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11692</v>
+        <v>11693</v>
       </c>
       <c r="D115" t="n">
         <v>2248</v>
       </c>
       <c r="E115" t="n">
-        <v>32953239</v>
+        <v>32955791</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -7175,13 +7175,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>83802</v>
+        <v>83803</v>
       </c>
       <c r="D165" t="n">
-        <v>17112</v>
+        <v>17113</v>
       </c>
       <c r="E165" t="n">
-        <v>354971515</v>
+        <v>354981515</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>12217</v>
+        <v>12218</v>
       </c>
       <c r="D167" t="n">
         <v>2416</v>
       </c>
       <c r="E167" t="n">
-        <v>105725619</v>
+        <v>105743177</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6204</v>
+        <v>6205</v>
       </c>
       <c r="D168" t="n">
         <v>1058</v>
       </c>
       <c r="E168" t="n">
-        <v>100524964</v>
+        <v>100553127</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249327</v>
+        <v>249328</v>
       </c>
       <c r="D3" t="n">
         <v>47457</v>
       </c>
       <c r="E3" t="n">
-        <v>1036476130</v>
+        <v>1036478313</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>141679</v>
+        <v>141680</v>
       </c>
       <c r="D53" t="n">
         <v>28854</v>
       </c>
       <c r="E53" t="n">
-        <v>590061743</v>
+        <v>590063206</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="D57" t="n">
         <v>623</v>
       </c>
       <c r="E57" t="n">
-        <v>138344178</v>
+        <v>138408892</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409069</v>
+        <v>409074</v>
       </c>
       <c r="D92" t="n">
         <v>70906</v>
       </c>
       <c r="E92" t="n">
-        <v>1594718796</v>
+        <v>1594755556</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209545</v>
+        <v>209550</v>
       </c>
       <c r="D93" t="n">
         <v>34261</v>
       </c>
       <c r="E93" t="n">
-        <v>1308331272</v>
+        <v>1308407897</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50752</v>
+        <v>50755</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>931855831</v>
+        <v>931923076</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17256</v>
+        <v>17257</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>790601490</v>
+        <v>790651633</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135232</v>
+        <v>135233</v>
       </c>
       <c r="D104" t="n">
         <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272164522</v>
+        <v>272168047</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D110" t="n">
         <v>71</v>
       </c>
       <c r="E110" t="n">
-        <v>16615357</v>
+        <v>16649846</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226087</v>
+        <v>226089</v>
       </c>
       <c r="D174" t="n">
         <v>40899</v>
       </c>
       <c r="E174" t="n">
-        <v>900573075</v>
+        <v>900577214</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>80779</v>
+        <v>80780</v>
       </c>
       <c r="D175" t="n">
         <v>14070</v>
       </c>
       <c r="E175" t="n">
-        <v>486147089</v>
+        <v>486154029</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
